--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13110" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -87,7 +87,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
+    <t>random_register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
   </si>
   <si>
     <t>提现成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,12 +445,13 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -491,14 +484,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>18683917194</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
+      <c r="D2" s="1">
+        <v>4.3674212173748101E+18</v>
       </c>
       <c r="E2">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>提现成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683917194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4367421217374810000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,14 +492,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>18683917194</v>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>4.3674212173748101E+18</v>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E2">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="2985"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,17 +40,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>cardno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,11 +75,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18683917194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4367421217374810000</t>
+    <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,17 +107,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -141,10 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -473,19 +463,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -496,36 +486,22 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>18111111111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -558,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9885" windowHeight="2985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +85,14 @@
   </si>
   <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -452,7 +461,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +481,16 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,10 +509,13 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,19 +449,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,16 +472,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,16 +501,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cardno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,10 +73,6 @@
   </si>
   <si>
     <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,13 +444,12 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -472,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -481,13 +472,10 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -495,28 +483,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -549,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +77,14 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -463,19 +463,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -483,25 +483,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
